--- a/WGC Stage2.xlsx
+++ b/WGC Stage2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H373302\Documents\PRA Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H373302\Documents\PythonScripts\pyqt5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BEDA71-7CE2-44AE-99C0-5EB8ED5C4BA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7B427E-3A31-4A14-A1F9-4EA03DE671CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,22 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
-  <si>
-    <t>RPM3809</t>
-  </si>
-  <si>
-    <t>RPM4354</t>
-  </si>
-  <si>
-    <t>RPM4898</t>
-  </si>
-  <si>
-    <t>RPM5442</t>
-  </si>
-  <si>
-    <t>RPM5714</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>rpm2940</t>
   </si>
@@ -85,20 +70,21 @@
     <t>Efficiency</t>
   </si>
   <si>
-    <t>Head</t>
-  </si>
-  <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>5714 RPM</t>
+    <t>3000 RPM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,14 +110,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 16" xfId="2" xr:uid="{88D5F48D-B18E-4674-9336-05187A5A39C3}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{103F4771-AD66-4E41-95BE-43032F12F60A}"/>
+    <cellStyle name="Normal 9" xfId="1" xr:uid="{26D110CC-56BE-4188-B629-910581EAB475}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,487 +436,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>16770</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>14610</v>
+        <v>10071</v>
       </c>
       <c r="C4">
-        <v>75.47</v>
-      </c>
-      <c r="I4">
-        <v>8510</v>
-      </c>
-      <c r="J4">
-        <v>6160</v>
-      </c>
-      <c r="K4">
-        <v>75.39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>18270</v>
-      </c>
+        <v>2856.85</v>
+      </c>
+      <c r="D4">
+        <v>77.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5">
-        <v>14370</v>
+        <v>11046.2</v>
       </c>
       <c r="C5">
-        <v>76.3</v>
-      </c>
-      <c r="I5">
-        <v>9730</v>
-      </c>
-      <c r="J5">
-        <v>5780</v>
-      </c>
-      <c r="K5">
-        <v>76.209999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>19660</v>
-      </c>
+        <v>2794.89</v>
+      </c>
+      <c r="D5">
+        <v>78.650000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6">
-        <v>13990</v>
+        <v>12022.2</v>
       </c>
       <c r="C6">
-        <v>77.14</v>
-      </c>
-      <c r="I6">
-        <v>10520</v>
-      </c>
-      <c r="J6">
-        <v>5500</v>
-      </c>
-      <c r="K6">
-        <v>75.650000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>20970</v>
-      </c>
+        <v>2716.2</v>
+      </c>
+      <c r="D6">
+        <v>78.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7">
-        <v>13440</v>
+        <v>13026.8</v>
       </c>
       <c r="C7">
-        <v>77.510000000000005</v>
-      </c>
-      <c r="I7">
-        <v>11140</v>
-      </c>
-      <c r="J7">
-        <v>5170</v>
-      </c>
-      <c r="K7">
-        <v>74.69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>22130</v>
-      </c>
+        <v>2609.66</v>
+      </c>
+      <c r="D7">
+        <v>77.319999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8">
-        <v>12780</v>
+        <v>14059.1</v>
       </c>
       <c r="C8">
-        <v>77.03</v>
-      </c>
-      <c r="I8">
-        <v>11840</v>
-      </c>
-      <c r="J8">
-        <v>4750</v>
-      </c>
-      <c r="K8">
-        <v>73.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>22830</v>
-      </c>
-      <c r="B9">
-        <v>12130</v>
-      </c>
-      <c r="C9">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>23670</v>
-      </c>
-      <c r="B10">
-        <v>10970</v>
-      </c>
-      <c r="C10">
-        <v>73.48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I11">
-        <v>10390</v>
-      </c>
-      <c r="J11">
-        <v>8180</v>
-      </c>
-      <c r="K11">
-        <v>75.900000000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I12">
-        <v>11460</v>
-      </c>
-      <c r="J12">
-        <v>7800</v>
-      </c>
-      <c r="K12">
-        <v>76.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I13">
-        <v>12530</v>
-      </c>
-      <c r="J13">
-        <v>7570</v>
-      </c>
-      <c r="K13">
-        <v>77.02</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I14">
-        <v>13600</v>
-      </c>
-      <c r="J14">
-        <v>7200</v>
-      </c>
-      <c r="K14">
+        <v>2430.83</v>
+      </c>
+      <c r="D8">
         <v>76.650000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I15">
-        <v>14390</v>
-      </c>
-      <c r="J15">
-        <v>6730</v>
-      </c>
-      <c r="K15">
-        <v>75.34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I16">
-        <v>15270</v>
-      </c>
-      <c r="J16">
-        <v>6130</v>
-      </c>
-      <c r="K16">
-        <v>72.55</v>
-      </c>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I19">
-        <v>12250</v>
-      </c>
-      <c r="J19">
-        <v>10610</v>
-      </c>
-      <c r="K19">
-        <v>75.290000000000006</v>
-      </c>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I20">
-        <v>13470</v>
-      </c>
-      <c r="J20">
-        <v>10230</v>
-      </c>
-      <c r="K20">
-        <v>76.489999999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I21">
-        <v>14960</v>
-      </c>
-      <c r="J21">
-        <v>9900</v>
-      </c>
-      <c r="K21">
-        <v>77.319999999999993</v>
-      </c>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I22">
-        <v>16500</v>
-      </c>
-      <c r="J22">
-        <v>9330</v>
-      </c>
-      <c r="K22">
-        <v>77.680000000000007</v>
-      </c>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I23">
-        <v>17620</v>
-      </c>
-      <c r="J23">
-        <v>8730</v>
-      </c>
-      <c r="K23">
-        <v>76.650000000000006</v>
-      </c>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I24">
-        <v>18780</v>
-      </c>
-      <c r="J24">
-        <v>7610</v>
-      </c>
-      <c r="K24">
-        <v>73.099999999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I27">
-        <v>14460</v>
-      </c>
-      <c r="J27">
-        <v>13440</v>
-      </c>
-      <c r="K27">
-        <v>75.260000000000005</v>
-      </c>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I28">
-        <v>15870</v>
-      </c>
-      <c r="J28">
-        <v>13030</v>
-      </c>
-      <c r="K28">
-        <v>76.39</v>
-      </c>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I29">
-        <v>17320</v>
-      </c>
-      <c r="J29">
-        <v>12710</v>
-      </c>
-      <c r="K29">
-        <v>77.239999999999995</v>
-      </c>
-    </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I30">
-        <v>18490</v>
-      </c>
-      <c r="J30">
-        <v>12390</v>
-      </c>
-      <c r="K30">
-        <v>77.709999999999994</v>
-      </c>
-    </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I31">
-        <v>19520</v>
-      </c>
-      <c r="J31">
-        <v>11930</v>
-      </c>
-      <c r="K31">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I32">
-        <v>20650</v>
-      </c>
-      <c r="J32">
-        <v>11280</v>
-      </c>
-      <c r="K32">
-        <v>77.34</v>
-      </c>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I33">
-        <v>21450</v>
-      </c>
-      <c r="J33">
-        <v>10450</v>
-      </c>
-      <c r="K33">
-        <v>75.94</v>
-      </c>
-    </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I34">
-        <v>22110</v>
-      </c>
-      <c r="J34">
-        <v>9430</v>
-      </c>
-      <c r="K34">
-        <v>73.59</v>
-      </c>
-    </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I37">
-        <v>16770</v>
-      </c>
-      <c r="J37">
-        <v>14610</v>
-      </c>
-      <c r="K37">
-        <v>75.47</v>
-      </c>
-    </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I38">
-        <v>18270</v>
-      </c>
-      <c r="J38">
-        <v>14370</v>
-      </c>
-      <c r="K38">
-        <v>76.3</v>
-      </c>
-    </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I39">
-        <v>19660</v>
-      </c>
-      <c r="J39">
-        <v>13990</v>
-      </c>
-      <c r="K39">
-        <v>77.14</v>
-      </c>
-    </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I40">
-        <v>20970</v>
-      </c>
-      <c r="J40">
-        <v>13440</v>
-      </c>
-      <c r="K40">
-        <v>77.510000000000005</v>
-      </c>
-    </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I41">
-        <v>22130</v>
-      </c>
-      <c r="J41">
-        <v>12780</v>
-      </c>
-      <c r="K41">
-        <v>77.03</v>
-      </c>
-    </row>
-    <row r="42" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I42">
-        <v>22830</v>
-      </c>
-      <c r="J42">
-        <v>12130</v>
-      </c>
-      <c r="K42">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I43">
-        <v>23670</v>
-      </c>
-      <c r="J43">
-        <v>10970</v>
-      </c>
-      <c r="K43">
-        <v>73.48</v>
-      </c>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -943,7 +546,7 @@
   <sheetData>
     <row r="3" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="4:6" x14ac:dyDescent="0.35">
@@ -1003,7 +606,7 @@
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.35">
@@ -1074,7 +677,7 @@
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.35">
@@ -1156,7 +759,7 @@
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.35">
@@ -1260,7 +863,7 @@
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E40" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.35">
@@ -1375,7 +978,7 @@
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E53" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.35">
@@ -1490,7 +1093,7 @@
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E65" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.35">
@@ -1605,7 +1208,7 @@
     </row>
     <row r="76" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E76" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="4:6" x14ac:dyDescent="0.35">
